--- a/ICC_Men_WC2023_Analysis/dashboard/DAX-Measures-&-Calculated-Columns.xlsx
+++ b/ICC_Men_WC2023_Analysis/dashboard/DAX-Measures-&-Calculated-Columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data_analysis\ICC_Men_WC2023_Analysis\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB22BB65-2966-49C6-A23F-8A7685C756D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50094FB0-C963-41C4-BA97-36336CD27C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E0005C66-E65B-4286-8378-04920CE702FC}"/>
   </bookViews>
@@ -189,25 +189,6 @@
     <t>To assign the batting order to potential final 11</t>
   </si>
   <si>
-    <t>SWITCH(
-    TRUE(),
-dim_player[name] = "Jos Buttler",1,
-dim_player[name] = "Rilee Rossouw",2,
-dim_player[name] = "Alex Hales",2,
-dim_player[name]  = "Virat Kohli",3,
-dim_player[name] = "Suryakumar Yadav" ,4,
-dim_player[name] = "Glenn Phillips" ,5,
-dim_player[name] = "Marcus Stoinis" ,6,
-dim_player[name] = "Glenn Maxwell" ,6,
-dim_player[name] = "Sikandar Raza" ,7,
-dim_player[name] = "Rashid Khan" ,8,
-dim_player[name] = "Shadab Khan" ,8,
-dim_player[name] = "Sam Curran" ,9,
-dim_player[name] = "Shaheen Shah Afridi" ,10,
-dim_player[name] = "Anrich Nortje" ,11
-)</t>
-  </si>
-  <si>
     <t>Boundary_runs</t>
   </si>
   <si>
@@ -305,7 +286,25 @@
     <t>Player_Selection = if(ISFILTERED(dim_players_wc2023[name]),"1","0")</t>
   </si>
   <si>
-    <t>dim_players_wc2023</t>
+    <t>dim_players_wc2023s_wc2023</t>
+  </si>
+  <si>
+    <t>SWITCH(
+TRUE(),
+dim_players_wc2023[name] = "Rohit Sharma",1,
+dim_players_wc2023[name] = "Quinton de Kock",2,
+dim_players_wc2023[name] = "Virat Kohli",3,
+dim_players_wc2023[name] = "Daryl Mitchell",4,
+dim_players_wc2023[name] = "Rachin Ravindra" ,4,
+dim_players_wc2023[name] = "KL Rahul" ,5,
+dim_players_wc2023[name] = "Glenn Maxwell" ,6,
+dim_players_wc2023[name] = "Glenn Phillips" ,7,
+dim_players_wc2023[name] = "Ravindra Jadeja" ,8,
+dim_players_wc2023[name] = "Mohammed Shami" ,9,
+dim_players_wc2023[name] = "Jasprit Bumrah" ,10,
+dim_players_wc2023[name] = "Adam Zampa" ,11,
+dim_players_wc2023[name] = "Gerald Coetzee" ,11,
+)</t>
   </si>
 </sst>
 </file>
@@ -400,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC4789AF-DEC8-4B08-B290-A67CB12DB16B}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{BC4789AF-DEC8-4B08-B290-A67CB12DB16B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC4789AF-DEC8-4B08-B290-A67CB12DB16B}" name="Table2" displayName="Table2" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{BC4789AF-DEC8-4B08-B290-A67CB12DB16B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{49BC461B-B67B-4BE6-A23D-A10B672A9ADE}" name="Sno."/>
     <tableColumn id="2" xr3:uid="{779778C5-95A5-4A3A-B9FE-7026A9054691}" name="Calculated Column Name"/>
@@ -762,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -779,7 +778,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -796,7 +795,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -813,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -830,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -847,7 +846,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -864,7 +863,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -875,13 +874,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
@@ -892,13 +891,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -924,7 +923,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -941,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
@@ -958,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -969,13 +968,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
@@ -992,7 +991,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
@@ -1009,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
@@ -1026,7 +1025,7 @@
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
@@ -1043,7 +1042,7 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>43</v>
@@ -1063,13 +1062,13 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1077,13 +1076,13 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1091,13 +1090,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1113,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C498ED12-076E-499D-8701-0EA775DA7AB7}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,13 +1147,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -1165,19 +1164,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1187,11 +1186,11 @@
       <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
-        <v>50</v>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
